--- a/2022/Symphony/Others/Emergency Format/DSR Remapping_ERMS.xlsx
+++ b/2022/Symphony/Others/Emergency Format/DSR Remapping_ERMS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Symphony-2022\January'22\ERMS update file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Symphony\Others\Emergency Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Old DSR ID</t>
   </si>
@@ -36,193 +36,25 @@
     <t>New DSR ID</t>
   </si>
   <si>
-    <t>RET-08802</t>
-  </si>
-  <si>
-    <t>RET-08806</t>
-  </si>
-  <si>
-    <t>RET-08807</t>
-  </si>
-  <si>
-    <t>RET-08817</t>
-  </si>
-  <si>
-    <t>RET-08823</t>
-  </si>
-  <si>
-    <t>RET-08824</t>
-  </si>
-  <si>
-    <t>RET-08825</t>
-  </si>
-  <si>
-    <t>RET-17768</t>
-  </si>
-  <si>
-    <t>RET-18555</t>
-  </si>
-  <si>
-    <t>RET-20439</t>
-  </si>
-  <si>
-    <t>RET-21135</t>
-  </si>
-  <si>
-    <t>RET-21138</t>
-  </si>
-  <si>
-    <t>RET-23289</t>
-  </si>
-  <si>
     <t>RET-25934</t>
   </si>
   <si>
-    <t>RET-29195</t>
-  </si>
-  <si>
-    <t>RET-32039</t>
-  </si>
-  <si>
-    <t>RET-32040</t>
-  </si>
-  <si>
-    <t>RET-32596</t>
-  </si>
-  <si>
-    <t>RET-34125</t>
-  </si>
-  <si>
-    <t>RET-34814</t>
-  </si>
-  <si>
-    <t>RET-34882</t>
-  </si>
-  <si>
-    <t>RET-36546</t>
-  </si>
-  <si>
-    <t>RET-36970</t>
-  </si>
-  <si>
-    <t>RET-38107</t>
-  </si>
-  <si>
-    <t>RET-38335</t>
-  </si>
-  <si>
-    <t>RET-39739</t>
-  </si>
-  <si>
-    <t>RET-39740</t>
-  </si>
-  <si>
-    <t>RET-40196</t>
-  </si>
-  <si>
-    <t>RET-40931</t>
-  </si>
-  <si>
-    <t>RET-40933</t>
-  </si>
-  <si>
-    <t>B.M Telecom</t>
-  </si>
-  <si>
-    <t>Sunjit Telecom</t>
-  </si>
-  <si>
-    <t>Charghat Telecom</t>
-  </si>
-  <si>
-    <t>Afzal Telecom</t>
-  </si>
-  <si>
-    <t>Tipu Mobile Center</t>
-  </si>
-  <si>
-    <t>Teleview Mobile</t>
-  </si>
-  <si>
-    <t>A.R Telecom</t>
-  </si>
-  <si>
-    <t>Satata Mobile</t>
-  </si>
-  <si>
-    <t>Sheikh Telecom</t>
-  </si>
-  <si>
-    <t>Amir Mobile Zone</t>
-  </si>
-  <si>
-    <t>Imran Telecom</t>
-  </si>
-  <si>
-    <t>Hasan Telecom</t>
-  </si>
-  <si>
-    <t>Sanowar Telecom</t>
-  </si>
-  <si>
     <t>H.T Link International</t>
   </si>
   <si>
-    <t>N.K Telecom</t>
-  </si>
-  <si>
-    <t>Midul Telecom</t>
-  </si>
-  <si>
-    <t>Neha Telecom</t>
-  </si>
-  <si>
-    <t>Friends Telecom</t>
-  </si>
-  <si>
-    <t>Mou Digital Studio</t>
-  </si>
-  <si>
-    <t>Charghat PC World &amp; Telecom</t>
-  </si>
-  <si>
-    <t>Mobile Garden</t>
-  </si>
-  <si>
-    <t>Saikot Telecom</t>
-  </si>
-  <si>
-    <t>Mayer Doa</t>
-  </si>
-  <si>
-    <t>Mama Telecom</t>
-  </si>
-  <si>
-    <t>Imon Telecom</t>
-  </si>
-  <si>
-    <t>Liton Telecom Charghat</t>
-  </si>
-  <si>
-    <t>Jakir Telecom</t>
-  </si>
-  <si>
-    <t>Bismillah Telecom Shardah</t>
-  </si>
-  <si>
-    <t>Mili Telecom</t>
-  </si>
-  <si>
-    <t>Nahid Telecom</t>
-  </si>
-  <si>
     <t>DEL-0179</t>
   </si>
   <si>
     <t>DSR-0351</t>
   </si>
   <si>
-    <t>DSR-0349</t>
+    <t>RET-35016</t>
+  </si>
+  <si>
+    <t>Shuvo Digital Studio</t>
+  </si>
+  <si>
+    <t>DSR-0247</t>
   </si>
 </sst>
 </file>
@@ -558,7 +390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -677,32 +509,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -759,28 +565,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1103,13 +897,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,513 +932,37 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>66</v>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>66</v>
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
